--- a/data/data_calendarSpreads/BAJAJ-AUTO.xlsx
+++ b/data/data_calendarSpreads/BAJAJ-AUTO.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C211"/>
+  <dimension ref="A1:C212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2725,6 +2725,17 @@
         <v>3044.8</v>
       </c>
     </row>
+    <row r="212">
+      <c r="A212" s="3" t="n">
+        <v>43585.49006348047</v>
+      </c>
+      <c r="B212" t="n">
+        <v>3005.25</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3007.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
